--- a/data/trans_bre/P23_1_R_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R_2016_2023-Edad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.28615319303818</v>
+        <v>-13.90331682061662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.565332061657246</v>
+        <v>-9.448901888996044</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4186226621476033</v>
+        <v>-0.4114077350844542</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3900817899127382</v>
+        <v>-0.4138185084139392</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.771397405643365</v>
+        <v>-1.482179110131864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.208906207896244</v>
+        <v>7.195123605579479</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.06294596676337842</v>
+        <v>-0.05152927559612792</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.575357082581764</v>
+        <v>0.549591524550784</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-6.557861048681263</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-7.185446716184657</v>
+        <v>-7.185446716184654</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1636335086144577</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.248548388054759</v>
+        <v>-0.2485483880547589</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.66272950704919</v>
+        <v>-11.94884962065477</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.33145161445077</v>
+        <v>-13.90330330840288</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.290279335681938</v>
+        <v>-0.2783111328190936</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4056125709938062</v>
+        <v>-0.423049707509717</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.206461639846001</v>
+        <v>-0.9006091408540781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2520598596139066</v>
+        <v>-0.892219068522436</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0300237762136356</v>
+        <v>-0.022648929701211</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01091158227726626</v>
+        <v>-0.03162365714195783</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-5.07793276199614</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-3.355215752487245</v>
+        <v>-3.355215752487251</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.1380719431878786</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1339397550996374</v>
+        <v>-0.1339397550996377</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.3421233798342</v>
+        <v>-10.40408026708523</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.893240234058196</v>
+        <v>-8.289353807374839</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2613188964745917</v>
+        <v>-0.2617923825406022</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2877304404500013</v>
+        <v>-0.2927179797704513</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.22059293892473</v>
+        <v>0.0964294795322712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.393544721968095</v>
+        <v>1.157970209127999</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.006453449181021319</v>
+        <v>0.005426615815282093</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.0658297170303451</v>
+        <v>0.05547770508724977</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-8.20346734197061</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-5.740908980005377</v>
+        <v>-5.740908980005358</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1969546629369808</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.216501312076843</v>
+        <v>-0.2165013120768423</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.04699808985385</v>
+        <v>-13.67293517231518</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.15439191769642</v>
+        <v>-10.05628885076891</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3132264743973091</v>
+        <v>-0.3072196249224449</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3415390233705248</v>
+        <v>-0.3367275312059257</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-2.8914406700848</v>
+        <v>-2.756856553812011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.856453142696331</v>
+        <v>-1.567278764557868</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.07120541764832065</v>
+        <v>-0.07329743288433198</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.07936920161687766</v>
+        <v>-0.06233955719087594</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-7.101545808613485</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-9.460422318278658</v>
+        <v>-9.460422318278644</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.2468570022654118</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.3229567581278599</v>
+        <v>-0.3229567581278595</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.60839098070138</v>
+        <v>-13.71221497115211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.1068302248932</v>
+        <v>-14.03826315009633</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.4179914713171777</v>
+        <v>-0.41817569681369</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4367603943418181</v>
+        <v>-0.433939393935853</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.557680025917499</v>
+        <v>-1.8669277513039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.287905406706789</v>
+        <v>-5.324242610959075</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.05275004356154556</v>
+        <v>-0.05922777344755871</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1967003142654981</v>
+        <v>-0.1973525377132304</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-12.94952266395829</v>
+        <v>-13.01499322082067</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-11.48699061733964</v>
+        <v>-11.15542273100284</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7099483217511653</v>
+        <v>-0.697196941241028</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.544783364113437</v>
+        <v>-0.5385643834657233</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-3.547324319194448</v>
+        <v>-3.40275720013434</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-3.676265193876373</v>
+        <v>-3.712254598915294</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2733639901600485</v>
+        <v>-0.241822481160409</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2227466053169206</v>
+        <v>-0.2245880543383819</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.296017232630142</v>
+        <v>-9.468259283148079</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.007008455462717</v>
+        <v>-8.070094659836336</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.9564212033574824</v>
+        <v>-0.9581601394616995</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.9189826519070613</v>
+        <v>-0.9254665020864921</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.381589248882043</v>
+        <v>-3.128243353216632</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.080199953333314</v>
+        <v>-3.222521548489147</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.484228558800893</v>
+        <v>-0.483227045126355</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.6408265224550027</v>
+        <v>-0.6393743503044867</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>-8.193215842646529</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>-6.395309193385254</v>
+        <v>-6.395309193385248</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.2549062345624437</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.274570725127133</v>
+        <v>-0.2745707251271328</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-10.57667330144976</v>
+        <v>-10.49016192629202</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-8.473182786465463</v>
+        <v>-8.233434877056226</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3175203502700577</v>
+        <v>-0.3159253265693182</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3452640585025781</v>
+        <v>-0.3370769475317248</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-5.90405978098678</v>
+        <v>-6.073459476827011</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-4.678921964237541</v>
+        <v>-4.471190045251484</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1908248149082122</v>
+        <v>-0.1963256891616644</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2110989364495535</v>
+        <v>-0.202310177874935</v>
       </c>
     </row>
     <row r="28">
